--- a/occurrences_ algo_process_imagem.xlsx
+++ b/occurrences_ algo_process_imagem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/631fab7c83f2505c/Documentos/GitHub/Artificial_markers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE5CF535-6E00-46B5-90A0-49D7953F1920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{AE5CF535-6E00-46B5-90A0-49D7953F1920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C19FCD0C-DD05-46EE-A629-9111ABC5EA9B}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8880" xr2:uid="{F67A9687-7CE6-429D-B79D-A698FDC19C15}"/>
+    <workbookView minimized="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8844" xr2:uid="{F67A9687-7CE6-429D-B79D-A698FDC19C15}"/>
   </bookViews>
   <sheets>
     <sheet name="occurrences_ algo_process_image" sheetId="1" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <v>2</v>
@@ -1498,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="T6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y6">
         <v>2</v>
